--- a/data/partidos/partidos_CESA25JF.xlsx
+++ b/data/partidos/partidos_CESA25JF.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:LP13"/>
+  <dimension ref="A1:LP17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2907,7 +2907,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>SEL. GALICIA JUVENIL FEMENINO</t>
+          <t>SELECCION CANARIA JUVENIL FEMENINA</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -4459,7 +4459,7 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>SEL. GALICIA JUVENIL FEMENINO</t>
+          <t>SELECCION CANARIA JUVENIL FEMENINA</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -5237,7 +5237,7 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>SEL. GALICIA JUVENIL FEMENINO</t>
+          <t>SELECCION CANARIA JUVENIL FEMENINA</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -11539,6 +11539,3134 @@
         <v>2</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1455922</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>06/01/2025</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>ANDALUCIA JUVENIL FEMENINO</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Seleccion de Euskadi Juvenil Femenina</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>24</v>
+      </c>
+      <c r="I14" t="n">
+        <v>34</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="n">
+        <v>8</v>
+      </c>
+      <c r="O14" t="n">
+        <v>8</v>
+      </c>
+      <c r="P14" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>10</v>
+      </c>
+      <c r="R14" t="n">
+        <v>13</v>
+      </c>
+      <c r="S14" t="n">
+        <v>13</v>
+      </c>
+      <c r="T14" t="n">
+        <v>14</v>
+      </c>
+      <c r="U14" t="n">
+        <v>15</v>
+      </c>
+      <c r="V14" t="n">
+        <v>16</v>
+      </c>
+      <c r="W14" t="n">
+        <v>17</v>
+      </c>
+      <c r="X14" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>44:28</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>28:29</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>53:24</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>51:05</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>LUCIA GOMEZ PEREZ</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP14" t="inlineStr"/>
+      <c r="AQ14" t="inlineStr"/>
+      <c r="AR14" t="inlineStr"/>
+      <c r="AS14" t="inlineStr"/>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AU14" t="inlineStr">
+        <is>
+          <t>UXUE AGINALDE DE LA CRUZ</t>
+        </is>
+      </c>
+      <c r="AV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW14" t="inlineStr"/>
+      <c r="AX14" t="inlineStr"/>
+      <c r="AY14" t="inlineStr"/>
+      <c r="AZ14" t="inlineStr"/>
+      <c r="BA14" t="inlineStr"/>
+      <c r="BB14" t="inlineStr">
+        <is>
+          <t>MONICA PIÑEIRA CALERO</t>
+        </is>
+      </c>
+      <c r="BC14" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD14" t="inlineStr"/>
+      <c r="BE14" t="inlineStr"/>
+      <c r="BF14" t="inlineStr"/>
+      <c r="BG14" t="inlineStr"/>
+      <c r="BH14" t="inlineStr"/>
+      <c r="BI14" t="inlineStr">
+        <is>
+          <t>MARA CABANILLAS RIVAS</t>
+        </is>
+      </c>
+      <c r="BJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK14" t="inlineStr"/>
+      <c r="BL14" t="inlineStr"/>
+      <c r="BM14" t="inlineStr"/>
+      <c r="BN14" t="inlineStr"/>
+      <c r="BO14" t="inlineStr"/>
+      <c r="BP14" t="inlineStr">
+        <is>
+          <t>MARTINA LOPEZ SALGADO</t>
+        </is>
+      </c>
+      <c r="BQ14" t="n">
+        <v>3</v>
+      </c>
+      <c r="BR14" t="inlineStr"/>
+      <c r="BS14" t="inlineStr"/>
+      <c r="BT14" t="inlineStr"/>
+      <c r="BU14" t="inlineStr"/>
+      <c r="BV14" t="inlineStr"/>
+      <c r="BW14" t="inlineStr">
+        <is>
+          <t>MALEN OCHANDIANO LANDA</t>
+        </is>
+      </c>
+      <c r="BX14" t="n">
+        <v>6</v>
+      </c>
+      <c r="BY14" t="inlineStr"/>
+      <c r="BZ14" t="inlineStr"/>
+      <c r="CA14" t="inlineStr"/>
+      <c r="CB14" t="inlineStr"/>
+      <c r="CC14" t="inlineStr"/>
+      <c r="CD14" t="inlineStr">
+        <is>
+          <t>SOFIA MAITENA CORZO RAMIREZ</t>
+        </is>
+      </c>
+      <c r="CE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF14" t="inlineStr"/>
+      <c r="CG14" t="inlineStr"/>
+      <c r="CH14" t="inlineStr"/>
+      <c r="CI14" t="inlineStr"/>
+      <c r="CJ14" t="inlineStr"/>
+      <c r="CK14" t="inlineStr">
+        <is>
+          <t>MAREN GONZALEZ DE TXABARRI URRUTIA</t>
+        </is>
+      </c>
+      <c r="CL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM14" t="inlineStr"/>
+      <c r="CN14" t="inlineStr"/>
+      <c r="CO14" t="inlineStr"/>
+      <c r="CP14" t="inlineStr"/>
+      <c r="CQ14" t="inlineStr"/>
+      <c r="CR14" t="inlineStr">
+        <is>
+          <t>SARA DRAGUTINOVIC</t>
+        </is>
+      </c>
+      <c r="CS14" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT14" t="inlineStr"/>
+      <c r="CU14" t="inlineStr"/>
+      <c r="CV14" t="inlineStr"/>
+      <c r="CW14" t="inlineStr"/>
+      <c r="CX14" t="inlineStr"/>
+      <c r="CY14" t="inlineStr">
+        <is>
+          <t>NORA MERINO AGUIRREZABAL</t>
+        </is>
+      </c>
+      <c r="CZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA14" t="inlineStr"/>
+      <c r="DB14" t="inlineStr"/>
+      <c r="DC14" t="inlineStr"/>
+      <c r="DD14" t="inlineStr"/>
+      <c r="DE14" t="inlineStr"/>
+      <c r="DF14" t="inlineStr">
+        <is>
+          <t>SARA AVILA JIMENEZ</t>
+        </is>
+      </c>
+      <c r="DG14" t="n">
+        <v>2</v>
+      </c>
+      <c r="DH14" t="inlineStr"/>
+      <c r="DI14" t="inlineStr"/>
+      <c r="DJ14" t="inlineStr"/>
+      <c r="DK14" t="inlineStr"/>
+      <c r="DL14" t="inlineStr"/>
+      <c r="DM14" t="inlineStr">
+        <is>
+          <t>LORE MARTIARENA PEÑA</t>
+        </is>
+      </c>
+      <c r="DN14" t="n">
+        <v>3</v>
+      </c>
+      <c r="DO14" t="inlineStr"/>
+      <c r="DP14" t="inlineStr"/>
+      <c r="DQ14" t="inlineStr"/>
+      <c r="DR14" t="inlineStr"/>
+      <c r="DS14" t="inlineStr"/>
+      <c r="DT14" t="inlineStr">
+        <is>
+          <t>CANDELA BERNAL BARROSO</t>
+        </is>
+      </c>
+      <c r="DU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV14" t="inlineStr"/>
+      <c r="DW14" t="inlineStr"/>
+      <c r="DX14" t="inlineStr"/>
+      <c r="DY14" t="inlineStr"/>
+      <c r="DZ14" t="inlineStr"/>
+      <c r="EA14" t="inlineStr">
+        <is>
+          <t>UXUE RIOS ANSOLEAGA</t>
+        </is>
+      </c>
+      <c r="EB14" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC14" t="inlineStr"/>
+      <c r="ED14" t="inlineStr"/>
+      <c r="EE14" t="inlineStr"/>
+      <c r="EF14" t="inlineStr"/>
+      <c r="EG14" t="inlineStr"/>
+      <c r="EH14" t="inlineStr">
+        <is>
+          <t>SOFIA GUERRERO PEREZ</t>
+        </is>
+      </c>
+      <c r="EI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ14" t="inlineStr"/>
+      <c r="EK14" t="inlineStr">
+        <is>
+          <t>12:40</t>
+        </is>
+      </c>
+      <c r="EL14" t="inlineStr"/>
+      <c r="EM14" t="inlineStr"/>
+      <c r="EN14" t="inlineStr"/>
+      <c r="EO14" t="inlineStr">
+        <is>
+          <t>ELENE FRESCO BASTARRIKA</t>
+        </is>
+      </c>
+      <c r="EP14" t="n">
+        <v>7</v>
+      </c>
+      <c r="EQ14" t="inlineStr"/>
+      <c r="ER14" t="inlineStr"/>
+      <c r="ES14" t="inlineStr"/>
+      <c r="ET14" t="inlineStr"/>
+      <c r="EU14" t="inlineStr"/>
+      <c r="EV14" t="inlineStr">
+        <is>
+          <t>ROCIO ABELLAN FLORES</t>
+        </is>
+      </c>
+      <c r="EW14" t="n">
+        <v>8</v>
+      </c>
+      <c r="EX14" t="inlineStr"/>
+      <c r="EY14" t="inlineStr">
+        <is>
+          <t>53:44</t>
+        </is>
+      </c>
+      <c r="EZ14" t="inlineStr"/>
+      <c r="FA14" t="inlineStr"/>
+      <c r="FB14" t="inlineStr"/>
+      <c r="FC14" t="inlineStr">
+        <is>
+          <t>UXUE BLANCO ARANDIA</t>
+        </is>
+      </c>
+      <c r="FD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE14" t="inlineStr"/>
+      <c r="FF14" t="inlineStr"/>
+      <c r="FG14" t="inlineStr"/>
+      <c r="FH14" t="inlineStr"/>
+      <c r="FI14" t="inlineStr"/>
+      <c r="FJ14" t="inlineStr">
+        <is>
+          <t>ADRIANA ORDOÑEZ MEJIAS</t>
+        </is>
+      </c>
+      <c r="FK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL14" t="inlineStr"/>
+      <c r="FM14" t="inlineStr"/>
+      <c r="FN14" t="inlineStr"/>
+      <c r="FO14" t="inlineStr"/>
+      <c r="FP14" t="inlineStr"/>
+      <c r="FQ14" t="inlineStr">
+        <is>
+          <t>ELENE OMAETXEBARRIA SEGUROLA</t>
+        </is>
+      </c>
+      <c r="FR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS14" t="inlineStr"/>
+      <c r="FT14" t="inlineStr"/>
+      <c r="FU14" t="inlineStr"/>
+      <c r="FV14" t="inlineStr"/>
+      <c r="FW14" t="inlineStr"/>
+      <c r="FX14" t="inlineStr">
+        <is>
+          <t>YULIYA KLEVCHUK</t>
+        </is>
+      </c>
+      <c r="FY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ14" t="inlineStr"/>
+      <c r="GA14" t="inlineStr"/>
+      <c r="GB14" t="inlineStr"/>
+      <c r="GC14" t="inlineStr"/>
+      <c r="GD14" t="inlineStr"/>
+      <c r="GE14" t="inlineStr">
+        <is>
+          <t>DUNE MENDIZABAL COLOMO</t>
+        </is>
+      </c>
+      <c r="GF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG14" t="inlineStr"/>
+      <c r="GH14" t="inlineStr">
+        <is>
+          <t>26:15</t>
+        </is>
+      </c>
+      <c r="GI14" t="inlineStr"/>
+      <c r="GJ14" t="inlineStr"/>
+      <c r="GK14" t="inlineStr"/>
+      <c r="GL14" t="inlineStr">
+        <is>
+          <t>MALENA MARTINEZ COBO</t>
+        </is>
+      </c>
+      <c r="GM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN14" t="inlineStr"/>
+      <c r="GO14" t="inlineStr"/>
+      <c r="GP14" t="inlineStr"/>
+      <c r="GQ14" t="inlineStr"/>
+      <c r="GR14" t="inlineStr"/>
+      <c r="GS14" t="inlineStr">
+        <is>
+          <t>ROSANE SERRANO ORTEGA</t>
+        </is>
+      </c>
+      <c r="GT14" t="n">
+        <v>11</v>
+      </c>
+      <c r="GU14" t="inlineStr"/>
+      <c r="GV14" t="inlineStr"/>
+      <c r="GW14" t="inlineStr"/>
+      <c r="GX14" t="inlineStr"/>
+      <c r="GY14" t="inlineStr"/>
+      <c r="GZ14" t="inlineStr">
+        <is>
+          <t>EVA MARIA PEREZ RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="HA14" t="n">
+        <v>1</v>
+      </c>
+      <c r="HB14" t="inlineStr"/>
+      <c r="HC14" t="inlineStr"/>
+      <c r="HD14" t="inlineStr"/>
+      <c r="HE14" t="inlineStr"/>
+      <c r="HF14" t="inlineStr"/>
+      <c r="HG14" t="inlineStr">
+        <is>
+          <t>LEIRE ARREGUI OLAIZOLA</t>
+        </is>
+      </c>
+      <c r="HH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI14" t="inlineStr"/>
+      <c r="HJ14" t="inlineStr"/>
+      <c r="HK14" t="inlineStr"/>
+      <c r="HL14" t="inlineStr"/>
+      <c r="HM14" t="inlineStr"/>
+      <c r="HN14" t="inlineStr">
+        <is>
+          <t>SILVIA FERNANDEZ GUZMAN</t>
+        </is>
+      </c>
+      <c r="HO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP14" t="inlineStr"/>
+      <c r="HQ14" t="inlineStr"/>
+      <c r="HR14" t="inlineStr"/>
+      <c r="HS14" t="inlineStr"/>
+      <c r="HT14" t="inlineStr"/>
+      <c r="HU14" t="inlineStr">
+        <is>
+          <t>LIDE ARRIZABALAGA ALBIZU</t>
+        </is>
+      </c>
+      <c r="HV14" t="n">
+        <v>3</v>
+      </c>
+      <c r="HW14" t="inlineStr"/>
+      <c r="HX14" t="inlineStr">
+        <is>
+          <t>48:23</t>
+        </is>
+      </c>
+      <c r="HY14" t="inlineStr">
+        <is>
+          <t>54:35</t>
+        </is>
+      </c>
+      <c r="HZ14" t="inlineStr"/>
+      <c r="IA14" t="inlineStr"/>
+      <c r="IB14" t="inlineStr">
+        <is>
+          <t>ELENA VALDIVIA REINA</t>
+        </is>
+      </c>
+      <c r="IC14" t="n">
+        <v>6</v>
+      </c>
+      <c r="ID14" t="inlineStr"/>
+      <c r="IE14" t="inlineStr"/>
+      <c r="IF14" t="inlineStr"/>
+      <c r="IG14" t="inlineStr"/>
+      <c r="IH14" t="inlineStr"/>
+      <c r="II14" t="inlineStr">
+        <is>
+          <t>OIHANA MURGIONDO ARZALLUZ</t>
+        </is>
+      </c>
+      <c r="IJ14" t="n">
+        <v>3</v>
+      </c>
+      <c r="IK14" t="inlineStr"/>
+      <c r="IL14" t="inlineStr"/>
+      <c r="IM14" t="inlineStr"/>
+      <c r="IN14" t="inlineStr"/>
+      <c r="IO14" t="inlineStr"/>
+      <c r="IP14" t="inlineStr">
+        <is>
+          <t>AZAHARA ARTERO BAÑARES</t>
+        </is>
+      </c>
+      <c r="IQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR14" t="inlineStr"/>
+      <c r="IS14" t="inlineStr"/>
+      <c r="IT14" t="inlineStr"/>
+      <c r="IU14" t="inlineStr"/>
+      <c r="IV14" t="inlineStr"/>
+      <c r="IW14" t="inlineStr">
+        <is>
+          <t>NAGORE ALZA ARANGUREN</t>
+        </is>
+      </c>
+      <c r="IX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY14" t="inlineStr"/>
+      <c r="IZ14" t="inlineStr">
+        <is>
+          <t>09:18</t>
+        </is>
+      </c>
+      <c r="JA14" t="inlineStr">
+        <is>
+          <t>13:38</t>
+        </is>
+      </c>
+      <c r="JB14" t="inlineStr"/>
+      <c r="JC14" t="inlineStr"/>
+      <c r="JD14" t="inlineStr">
+        <is>
+          <t>ENTRENADOR</t>
+        </is>
+      </c>
+      <c r="JE14" t="inlineStr">
+        <is>
+          <t>RICARDO MARQUEZ SERRANO</t>
+        </is>
+      </c>
+      <c r="JF14" t="inlineStr"/>
+      <c r="JG14" t="inlineStr"/>
+      <c r="JH14" t="inlineStr">
+        <is>
+          <t>AYTE ENTRENADOR</t>
+        </is>
+      </c>
+      <c r="JI14" t="inlineStr">
+        <is>
+          <t>ZULEIMA SECO ESPAÑA</t>
+        </is>
+      </c>
+      <c r="JJ14" t="inlineStr"/>
+      <c r="JK14" t="inlineStr"/>
+      <c r="JL14" t="inlineStr">
+        <is>
+          <t>OFICIAL</t>
+        </is>
+      </c>
+      <c r="JM14" t="inlineStr">
+        <is>
+          <t>LAUREANO MARQUEZ RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="JN14" t="inlineStr"/>
+      <c r="JO14" t="inlineStr"/>
+      <c r="JP14" t="inlineStr">
+        <is>
+          <t>OFICIAL</t>
+        </is>
+      </c>
+      <c r="JQ14" t="inlineStr">
+        <is>
+          <t>MARINA ROMERO LUNA</t>
+        </is>
+      </c>
+      <c r="JR14" t="inlineStr"/>
+      <c r="JS14" t="inlineStr"/>
+      <c r="JT14" t="inlineStr"/>
+      <c r="JU14" t="inlineStr"/>
+      <c r="JV14" t="inlineStr"/>
+      <c r="JW14" t="inlineStr"/>
+      <c r="JX14" t="n">
+        <v>58</v>
+      </c>
+      <c r="JY14" t="n">
+        <v>-10</v>
+      </c>
+      <c r="JZ14" t="n">
+        <v>10</v>
+      </c>
+      <c r="KA14" t="n">
+        <v>2</v>
+      </c>
+      <c r="KB14" t="n">
+        <v>3</v>
+      </c>
+      <c r="KC14" t="n">
+        <v>1</v>
+      </c>
+      <c r="KD14" t="n">
+        <v>3</v>
+      </c>
+      <c r="KE14" t="n">
+        <v>3</v>
+      </c>
+      <c r="KF14" t="n">
+        <v>2</v>
+      </c>
+      <c r="KG14" t="n">
+        <v>4</v>
+      </c>
+      <c r="KH14" t="n">
+        <v>3</v>
+      </c>
+      <c r="KI14" t="n">
+        <v>3</v>
+      </c>
+      <c r="KJ14" t="n">
+        <v>2</v>
+      </c>
+      <c r="KK14" t="n">
+        <v>2</v>
+      </c>
+      <c r="KL14" t="n">
+        <v>3</v>
+      </c>
+      <c r="KM14" t="n">
+        <v>1</v>
+      </c>
+      <c r="KN14" t="n">
+        <v>2</v>
+      </c>
+      <c r="KO14" t="n">
+        <v>2</v>
+      </c>
+      <c r="KP14" t="n">
+        <v>2</v>
+      </c>
+      <c r="KQ14" t="n">
+        <v>2</v>
+      </c>
+      <c r="KR14" t="n">
+        <v>2</v>
+      </c>
+      <c r="KS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT14" t="n">
+        <v>1</v>
+      </c>
+      <c r="KU14" t="n">
+        <v>2</v>
+      </c>
+      <c r="KV14" t="n">
+        <v>5</v>
+      </c>
+      <c r="KW14" t="n">
+        <v>2</v>
+      </c>
+      <c r="KX14" t="n">
+        <v>5</v>
+      </c>
+      <c r="KY14" t="n">
+        <v>2</v>
+      </c>
+      <c r="KZ14" t="n">
+        <v>4</v>
+      </c>
+      <c r="LA14" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="LB14" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LC14" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LD14" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LE14" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="LF14" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="LG14" t="inlineStr">
+        <is>
+          <t>Empate</t>
+        </is>
+      </c>
+      <c r="LH14" t="inlineStr">
+        <is>
+          <t>Empate</t>
+        </is>
+      </c>
+      <c r="LI14" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="LJ14" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="LK14" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="LL14" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="LM14" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="LN14" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="LO14" t="n">
+        <v>3</v>
+      </c>
+      <c r="LP14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1455923</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>06/01/2025</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>SEL. GALICIA JUVENIL FEMENINO</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>SEL. NAVARRA JUVENIL FEMENINO</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>22</v>
+      </c>
+      <c r="I15" t="n">
+        <v>25</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="n">
+        <v>5</v>
+      </c>
+      <c r="O15" t="n">
+        <v>6</v>
+      </c>
+      <c r="P15" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>9</v>
+      </c>
+      <c r="R15" t="n">
+        <v>10</v>
+      </c>
+      <c r="S15" t="n">
+        <v>11</v>
+      </c>
+      <c r="T15" t="n">
+        <v>10</v>
+      </c>
+      <c r="U15" t="n">
+        <v>13</v>
+      </c>
+      <c r="V15" t="n">
+        <v>12</v>
+      </c>
+      <c r="W15" t="n">
+        <v>14</v>
+      </c>
+      <c r="X15" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>18:51:00</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>22:36:00</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>45:05</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>50:33</t>
+        </is>
+      </c>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>56:53</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>CELIA PEREZ CASTRO</t>
+        </is>
+      </c>
+      <c r="AO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr"/>
+      <c r="AR15" t="inlineStr"/>
+      <c r="AS15" t="inlineStr"/>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AU15" t="inlineStr">
+        <is>
+          <t>OIHANE BEPERET SALINAS</t>
+        </is>
+      </c>
+      <c r="AV15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW15" t="inlineStr"/>
+      <c r="AX15" t="inlineStr"/>
+      <c r="AY15" t="inlineStr"/>
+      <c r="AZ15" t="inlineStr"/>
+      <c r="BA15" t="inlineStr"/>
+      <c r="BB15" t="inlineStr">
+        <is>
+          <t>LIA SALVADO AREAL</t>
+        </is>
+      </c>
+      <c r="BC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD15" t="inlineStr"/>
+      <c r="BE15" t="inlineStr"/>
+      <c r="BF15" t="inlineStr"/>
+      <c r="BG15" t="inlineStr"/>
+      <c r="BH15" t="inlineStr"/>
+      <c r="BI15" t="inlineStr">
+        <is>
+          <t>SARA TARDIO SALDISE</t>
+        </is>
+      </c>
+      <c r="BJ15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK15" t="inlineStr"/>
+      <c r="BL15" t="inlineStr"/>
+      <c r="BM15" t="inlineStr"/>
+      <c r="BN15" t="inlineStr"/>
+      <c r="BO15" t="inlineStr"/>
+      <c r="BP15" t="inlineStr">
+        <is>
+          <t>IRIA BENACHES GILSANZ</t>
+        </is>
+      </c>
+      <c r="BQ15" t="n">
+        <v>7</v>
+      </c>
+      <c r="BR15" t="inlineStr"/>
+      <c r="BS15" t="inlineStr"/>
+      <c r="BT15" t="inlineStr"/>
+      <c r="BU15" t="inlineStr"/>
+      <c r="BV15" t="inlineStr"/>
+      <c r="BW15" t="inlineStr">
+        <is>
+          <t>LEYRE EGUILLOR PEREZ</t>
+        </is>
+      </c>
+      <c r="BX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY15" t="inlineStr"/>
+      <c r="BZ15" t="inlineStr"/>
+      <c r="CA15" t="inlineStr"/>
+      <c r="CB15" t="inlineStr"/>
+      <c r="CC15" t="inlineStr"/>
+      <c r="CD15" t="inlineStr">
+        <is>
+          <t>NAIHARA COSTAS ALVAREZ</t>
+        </is>
+      </c>
+      <c r="CE15" t="n">
+        <v>2</v>
+      </c>
+      <c r="CF15" t="inlineStr"/>
+      <c r="CG15" t="inlineStr"/>
+      <c r="CH15" t="inlineStr"/>
+      <c r="CI15" t="inlineStr"/>
+      <c r="CJ15" t="inlineStr"/>
+      <c r="CK15" t="inlineStr">
+        <is>
+          <t>CLAUDIA ALDAVE MARTINEZ</t>
+        </is>
+      </c>
+      <c r="CL15" t="n">
+        <v>2</v>
+      </c>
+      <c r="CM15" t="inlineStr"/>
+      <c r="CN15" t="inlineStr"/>
+      <c r="CO15" t="inlineStr"/>
+      <c r="CP15" t="inlineStr"/>
+      <c r="CQ15" t="inlineStr"/>
+      <c r="CR15" t="inlineStr">
+        <is>
+          <t>IRIA LOPEZ LOPEZ</t>
+        </is>
+      </c>
+      <c r="CS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT15" t="inlineStr"/>
+      <c r="CU15" t="inlineStr"/>
+      <c r="CV15" t="inlineStr"/>
+      <c r="CW15" t="inlineStr"/>
+      <c r="CX15" t="inlineStr"/>
+      <c r="CY15" t="inlineStr">
+        <is>
+          <t>NAIA HUALDE ZARRALUQUI</t>
+        </is>
+      </c>
+      <c r="CZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA15" t="inlineStr"/>
+      <c r="DB15" t="inlineStr"/>
+      <c r="DC15" t="inlineStr"/>
+      <c r="DD15" t="inlineStr"/>
+      <c r="DE15" t="inlineStr"/>
+      <c r="DF15" t="inlineStr">
+        <is>
+          <t>ANTIA FERNANDEZ LAGO</t>
+        </is>
+      </c>
+      <c r="DG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH15" t="inlineStr"/>
+      <c r="DI15" t="inlineStr"/>
+      <c r="DJ15" t="inlineStr"/>
+      <c r="DK15" t="inlineStr"/>
+      <c r="DL15" t="inlineStr"/>
+      <c r="DM15" t="inlineStr">
+        <is>
+          <t>AITANA GOÑI MACUA</t>
+        </is>
+      </c>
+      <c r="DN15" t="n">
+        <v>2</v>
+      </c>
+      <c r="DO15" t="inlineStr"/>
+      <c r="DP15" t="inlineStr"/>
+      <c r="DQ15" t="inlineStr"/>
+      <c r="DR15" t="inlineStr"/>
+      <c r="DS15" t="inlineStr"/>
+      <c r="DT15" t="inlineStr">
+        <is>
+          <t>ALBA PEREZ LAGO</t>
+        </is>
+      </c>
+      <c r="DU15" t="n">
+        <v>2</v>
+      </c>
+      <c r="DV15" t="inlineStr"/>
+      <c r="DW15" t="inlineStr"/>
+      <c r="DX15" t="inlineStr"/>
+      <c r="DY15" t="inlineStr"/>
+      <c r="DZ15" t="inlineStr"/>
+      <c r="EA15" t="inlineStr">
+        <is>
+          <t>LEIRE ZARRANZ ARRAIZA</t>
+        </is>
+      </c>
+      <c r="EB15" t="n">
+        <v>3</v>
+      </c>
+      <c r="EC15" t="inlineStr"/>
+      <c r="ED15" t="inlineStr"/>
+      <c r="EE15" t="inlineStr"/>
+      <c r="EF15" t="inlineStr"/>
+      <c r="EG15" t="inlineStr"/>
+      <c r="EH15" t="inlineStr">
+        <is>
+          <t>JULIA GONZALEZ LOPEZ</t>
+        </is>
+      </c>
+      <c r="EI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ15" t="inlineStr"/>
+      <c r="EK15" t="inlineStr"/>
+      <c r="EL15" t="inlineStr"/>
+      <c r="EM15" t="inlineStr"/>
+      <c r="EN15" t="inlineStr"/>
+      <c r="EO15" t="inlineStr">
+        <is>
+          <t>IRUNE URBELTZ OTXOA</t>
+        </is>
+      </c>
+      <c r="EP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ15" t="inlineStr"/>
+      <c r="ER15" t="inlineStr"/>
+      <c r="ES15" t="inlineStr"/>
+      <c r="ET15" t="inlineStr"/>
+      <c r="EU15" t="inlineStr"/>
+      <c r="EV15" t="inlineStr">
+        <is>
+          <t>PAULA DIEGUEZ SAA</t>
+        </is>
+      </c>
+      <c r="EW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX15" t="inlineStr"/>
+      <c r="EY15" t="inlineStr"/>
+      <c r="EZ15" t="inlineStr"/>
+      <c r="FA15" t="inlineStr"/>
+      <c r="FB15" t="inlineStr"/>
+      <c r="FC15" t="inlineStr">
+        <is>
+          <t>NAROA PUNCEL AIZCORBE</t>
+        </is>
+      </c>
+      <c r="FD15" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE15" t="inlineStr"/>
+      <c r="FF15" t="inlineStr"/>
+      <c r="FG15" t="inlineStr"/>
+      <c r="FH15" t="inlineStr"/>
+      <c r="FI15" t="inlineStr"/>
+      <c r="FJ15" t="inlineStr">
+        <is>
+          <t>UXIA FERNANDEZ GARCIA</t>
+        </is>
+      </c>
+      <c r="FK15" t="n">
+        <v>3</v>
+      </c>
+      <c r="FL15" t="inlineStr"/>
+      <c r="FM15" t="inlineStr">
+        <is>
+          <t>50:57</t>
+        </is>
+      </c>
+      <c r="FN15" t="inlineStr"/>
+      <c r="FO15" t="inlineStr"/>
+      <c r="FP15" t="inlineStr"/>
+      <c r="FQ15" t="inlineStr">
+        <is>
+          <t>ANE DOMINGUEZ YABEN</t>
+        </is>
+      </c>
+      <c r="FR15" t="n">
+        <v>3</v>
+      </c>
+      <c r="FS15" t="inlineStr"/>
+      <c r="FT15" t="inlineStr"/>
+      <c r="FU15" t="inlineStr"/>
+      <c r="FV15" t="inlineStr"/>
+      <c r="FW15" t="inlineStr"/>
+      <c r="FX15" t="inlineStr">
+        <is>
+          <t>IRIA AUGUSTO GALLEGO</t>
+        </is>
+      </c>
+      <c r="FY15" t="n">
+        <v>3</v>
+      </c>
+      <c r="FZ15" t="inlineStr"/>
+      <c r="GA15" t="inlineStr"/>
+      <c r="GB15" t="inlineStr"/>
+      <c r="GC15" t="inlineStr"/>
+      <c r="GD15" t="inlineStr"/>
+      <c r="GE15" t="inlineStr">
+        <is>
+          <t>AMAYA ANCIN ECHEVERRIA</t>
+        </is>
+      </c>
+      <c r="GF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG15" t="inlineStr"/>
+      <c r="GH15" t="inlineStr"/>
+      <c r="GI15" t="inlineStr"/>
+      <c r="GJ15" t="inlineStr"/>
+      <c r="GK15" t="inlineStr"/>
+      <c r="GL15" t="inlineStr">
+        <is>
+          <t>ALEJANDRA MONTENEGRO PRADO</t>
+        </is>
+      </c>
+      <c r="GM15" t="n">
+        <v>3</v>
+      </c>
+      <c r="GN15" t="inlineStr"/>
+      <c r="GO15" t="inlineStr">
+        <is>
+          <t>04:22</t>
+        </is>
+      </c>
+      <c r="GP15" t="inlineStr"/>
+      <c r="GQ15" t="inlineStr"/>
+      <c r="GR15" t="inlineStr"/>
+      <c r="GS15" t="inlineStr">
+        <is>
+          <t>JUNE AGUINAGALDE VIGURIA</t>
+        </is>
+      </c>
+      <c r="GT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU15" t="inlineStr"/>
+      <c r="GV15" t="inlineStr"/>
+      <c r="GW15" t="inlineStr"/>
+      <c r="GX15" t="inlineStr"/>
+      <c r="GY15" t="inlineStr"/>
+      <c r="GZ15" t="inlineStr">
+        <is>
+          <t>ISIS MORENO ALVAREZ</t>
+        </is>
+      </c>
+      <c r="HA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB15" t="inlineStr"/>
+      <c r="HC15" t="inlineStr">
+        <is>
+          <t>21:47</t>
+        </is>
+      </c>
+      <c r="HD15" t="inlineStr"/>
+      <c r="HE15" t="inlineStr"/>
+      <c r="HF15" t="inlineStr"/>
+      <c r="HG15" t="inlineStr">
+        <is>
+          <t>IRENE ARBIZU GUTIERREZ</t>
+        </is>
+      </c>
+      <c r="HH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI15" t="inlineStr"/>
+      <c r="HJ15" t="inlineStr">
+        <is>
+          <t>22:26</t>
+        </is>
+      </c>
+      <c r="HK15" t="inlineStr"/>
+      <c r="HL15" t="inlineStr"/>
+      <c r="HM15" t="inlineStr"/>
+      <c r="HN15" t="inlineStr">
+        <is>
+          <t>CARMEN MAGALLANES PEREZ</t>
+        </is>
+      </c>
+      <c r="HO15" t="n">
+        <v>2</v>
+      </c>
+      <c r="HP15" t="inlineStr"/>
+      <c r="HQ15" t="inlineStr"/>
+      <c r="HR15" t="inlineStr"/>
+      <c r="HS15" t="inlineStr"/>
+      <c r="HT15" t="inlineStr"/>
+      <c r="HU15" t="inlineStr">
+        <is>
+          <t>GARAZI VALENZUELA ALVIRA</t>
+        </is>
+      </c>
+      <c r="HV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW15" t="inlineStr"/>
+      <c r="HX15" t="inlineStr">
+        <is>
+          <t>28:08</t>
+        </is>
+      </c>
+      <c r="HY15" t="inlineStr"/>
+      <c r="HZ15" t="inlineStr"/>
+      <c r="IA15" t="inlineStr"/>
+      <c r="IB15" t="inlineStr">
+        <is>
+          <t>AINE ROCA QUINTELA</t>
+        </is>
+      </c>
+      <c r="IC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID15" t="inlineStr"/>
+      <c r="IE15" t="inlineStr"/>
+      <c r="IF15" t="inlineStr"/>
+      <c r="IG15" t="inlineStr"/>
+      <c r="IH15" t="inlineStr"/>
+      <c r="II15" t="inlineStr">
+        <is>
+          <t>UXUE IRIARTE VALERO</t>
+        </is>
+      </c>
+      <c r="IJ15" t="n">
+        <v>3</v>
+      </c>
+      <c r="IK15" t="inlineStr">
+        <is>
+          <t>02:02</t>
+        </is>
+      </c>
+      <c r="IL15" t="inlineStr">
+        <is>
+          <t>32:23</t>
+        </is>
+      </c>
+      <c r="IM15" t="inlineStr"/>
+      <c r="IN15" t="inlineStr"/>
+      <c r="IO15" t="inlineStr"/>
+      <c r="IP15" t="inlineStr">
+        <is>
+          <t>SALMA AAKCHA HAMMOUDA</t>
+        </is>
+      </c>
+      <c r="IQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR15" t="inlineStr"/>
+      <c r="IS15" t="inlineStr"/>
+      <c r="IT15" t="inlineStr"/>
+      <c r="IU15" t="inlineStr"/>
+      <c r="IV15" t="inlineStr"/>
+      <c r="IW15" t="inlineStr">
+        <is>
+          <t>IRUNE PUNCEL AIZCORBE</t>
+        </is>
+      </c>
+      <c r="IX15" t="n">
+        <v>6</v>
+      </c>
+      <c r="IY15" t="inlineStr"/>
+      <c r="IZ15" t="inlineStr"/>
+      <c r="JA15" t="inlineStr"/>
+      <c r="JB15" t="inlineStr"/>
+      <c r="JC15" t="inlineStr"/>
+      <c r="JD15" t="inlineStr">
+        <is>
+          <t>ENTRENADOR</t>
+        </is>
+      </c>
+      <c r="JE15" t="inlineStr">
+        <is>
+          <t>ISMAEL MARTINEZ GONZALEZ</t>
+        </is>
+      </c>
+      <c r="JF15" t="inlineStr"/>
+      <c r="JG15" t="inlineStr"/>
+      <c r="JH15" t="inlineStr">
+        <is>
+          <t>AYTE ENTRENADOR</t>
+        </is>
+      </c>
+      <c r="JI15" t="inlineStr">
+        <is>
+          <t>ANXO OTERO SIEIRO</t>
+        </is>
+      </c>
+      <c r="JJ15" t="inlineStr"/>
+      <c r="JK15" t="inlineStr"/>
+      <c r="JL15" t="inlineStr">
+        <is>
+          <t>OFICIAL</t>
+        </is>
+      </c>
+      <c r="JM15" t="inlineStr">
+        <is>
+          <t>MONICA FERRADAS GAYOSO</t>
+        </is>
+      </c>
+      <c r="JN15" t="inlineStr"/>
+      <c r="JO15" t="inlineStr"/>
+      <c r="JP15" t="inlineStr">
+        <is>
+          <t>OFICIAL</t>
+        </is>
+      </c>
+      <c r="JQ15" t="inlineStr">
+        <is>
+          <t>INES JOSEFA HERNANDEZ RUZ</t>
+        </is>
+      </c>
+      <c r="JR15" t="inlineStr"/>
+      <c r="JS15" t="inlineStr"/>
+      <c r="JT15" t="inlineStr"/>
+      <c r="JU15" t="inlineStr"/>
+      <c r="JV15" t="inlineStr"/>
+      <c r="JW15" t="inlineStr"/>
+      <c r="JX15" t="n">
+        <v>47</v>
+      </c>
+      <c r="JY15" t="n">
+        <v>-3</v>
+      </c>
+      <c r="JZ15" t="n">
+        <v>3</v>
+      </c>
+      <c r="KA15" t="n">
+        <v>3</v>
+      </c>
+      <c r="KB15" t="n">
+        <v>3</v>
+      </c>
+      <c r="KC15" t="n">
+        <v>2</v>
+      </c>
+      <c r="KD15" t="n">
+        <v>1</v>
+      </c>
+      <c r="KE15" t="n">
+        <v>2</v>
+      </c>
+      <c r="KF15" t="n">
+        <v>2</v>
+      </c>
+      <c r="KG15" t="n">
+        <v>1</v>
+      </c>
+      <c r="KH15" t="n">
+        <v>3</v>
+      </c>
+      <c r="KI15" t="n">
+        <v>3</v>
+      </c>
+      <c r="KJ15" t="n">
+        <v>3</v>
+      </c>
+      <c r="KK15" t="n">
+        <v>2</v>
+      </c>
+      <c r="KL15" t="n">
+        <v>2</v>
+      </c>
+      <c r="KM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN15" t="n">
+        <v>2</v>
+      </c>
+      <c r="KO15" t="n">
+        <v>2</v>
+      </c>
+      <c r="KP15" t="n">
+        <v>1</v>
+      </c>
+      <c r="KQ15" t="n">
+        <v>3</v>
+      </c>
+      <c r="KR15" t="n">
+        <v>2</v>
+      </c>
+      <c r="KS15" t="n">
+        <v>1</v>
+      </c>
+      <c r="KT15" t="n">
+        <v>4</v>
+      </c>
+      <c r="KU15" t="n">
+        <v>2</v>
+      </c>
+      <c r="KV15" t="n">
+        <v>1</v>
+      </c>
+      <c r="KW15" t="n">
+        <v>2</v>
+      </c>
+      <c r="KX15" t="n">
+        <v>2</v>
+      </c>
+      <c r="KY15" t="n">
+        <v>2</v>
+      </c>
+      <c r="KZ15" t="n">
+        <v>2</v>
+      </c>
+      <c r="LA15" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LB15" t="inlineStr">
+        <is>
+          <t>Empate</t>
+        </is>
+      </c>
+      <c r="LC15" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="LD15" t="inlineStr">
+        <is>
+          <t>Empate</t>
+        </is>
+      </c>
+      <c r="LE15" t="inlineStr">
+        <is>
+          <t>Empate</t>
+        </is>
+      </c>
+      <c r="LF15" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="LG15" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LH15" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LI15" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="LJ15" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LK15" t="inlineStr">
+        <is>
+          <t>Empate</t>
+        </is>
+      </c>
+      <c r="LL15" t="inlineStr">
+        <is>
+          <t>Empate</t>
+        </is>
+      </c>
+      <c r="LM15" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="LN15" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="LO15" t="n">
+        <v>3</v>
+      </c>
+      <c r="LP15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1455924</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>06/01/2025</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>SEL. COMUNITAT VALENCIANA</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>SELECCION CANARIA JUVENIL FEMENINA</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>36</v>
+      </c>
+      <c r="I16" t="n">
+        <v>19</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3</v>
+      </c>
+      <c r="L16" t="n">
+        <v>7</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="n">
+        <v>11</v>
+      </c>
+      <c r="O16" t="n">
+        <v>7</v>
+      </c>
+      <c r="P16" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>8</v>
+      </c>
+      <c r="R16" t="n">
+        <v>16</v>
+      </c>
+      <c r="S16" t="n">
+        <v>8</v>
+      </c>
+      <c r="T16" t="n">
+        <v>19</v>
+      </c>
+      <c r="U16" t="n">
+        <v>11</v>
+      </c>
+      <c r="V16" t="n">
+        <v>22</v>
+      </c>
+      <c r="W16" t="n">
+        <v>11</v>
+      </c>
+      <c r="X16" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>33</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>21:13:00</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>ROSA MARIA RIPOLL FERNANDEZ</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="inlineStr"/>
+      <c r="AR16" t="inlineStr"/>
+      <c r="AS16" t="inlineStr"/>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AU16" t="inlineStr">
+        <is>
+          <t>DANA CALERO CAICEDO</t>
+        </is>
+      </c>
+      <c r="AV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW16" t="inlineStr"/>
+      <c r="AX16" t="inlineStr"/>
+      <c r="AY16" t="inlineStr"/>
+      <c r="AZ16" t="inlineStr"/>
+      <c r="BA16" t="inlineStr"/>
+      <c r="BB16" t="inlineStr">
+        <is>
+          <t>TERESA ANTON VALERO</t>
+        </is>
+      </c>
+      <c r="BC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD16" t="inlineStr"/>
+      <c r="BE16" t="inlineStr"/>
+      <c r="BF16" t="inlineStr"/>
+      <c r="BG16" t="inlineStr"/>
+      <c r="BH16" t="inlineStr"/>
+      <c r="BI16" t="inlineStr">
+        <is>
+          <t>VALERIA BETANIA DIAZ LOPEZ</t>
+        </is>
+      </c>
+      <c r="BJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK16" t="inlineStr"/>
+      <c r="BL16" t="inlineStr"/>
+      <c r="BM16" t="inlineStr"/>
+      <c r="BN16" t="inlineStr"/>
+      <c r="BO16" t="inlineStr"/>
+      <c r="BP16" t="inlineStr">
+        <is>
+          <t>REBECA SECADES CATALA</t>
+        </is>
+      </c>
+      <c r="BQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR16" t="inlineStr"/>
+      <c r="BS16" t="inlineStr"/>
+      <c r="BT16" t="inlineStr"/>
+      <c r="BU16" t="inlineStr"/>
+      <c r="BV16" t="inlineStr"/>
+      <c r="BW16" t="inlineStr">
+        <is>
+          <t>SARA SANTANA RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="BX16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY16" t="inlineStr"/>
+      <c r="BZ16" t="inlineStr"/>
+      <c r="CA16" t="inlineStr"/>
+      <c r="CB16" t="inlineStr"/>
+      <c r="CC16" t="inlineStr"/>
+      <c r="CD16" t="inlineStr">
+        <is>
+          <t>ANASTASIYA HVOZD</t>
+        </is>
+      </c>
+      <c r="CE16" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF16" t="inlineStr"/>
+      <c r="CG16" t="inlineStr"/>
+      <c r="CH16" t="inlineStr"/>
+      <c r="CI16" t="inlineStr"/>
+      <c r="CJ16" t="inlineStr"/>
+      <c r="CK16" t="inlineStr">
+        <is>
+          <t>NICOLE COLLINS BENETAZZO</t>
+        </is>
+      </c>
+      <c r="CL16" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM16" t="inlineStr"/>
+      <c r="CN16" t="inlineStr"/>
+      <c r="CO16" t="inlineStr"/>
+      <c r="CP16" t="inlineStr"/>
+      <c r="CQ16" t="inlineStr"/>
+      <c r="CR16" t="inlineStr">
+        <is>
+          <t>ANDREA PALOMERO PEREZ</t>
+        </is>
+      </c>
+      <c r="CS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT16" t="inlineStr"/>
+      <c r="CU16" t="inlineStr"/>
+      <c r="CV16" t="inlineStr"/>
+      <c r="CW16" t="inlineStr"/>
+      <c r="CX16" t="inlineStr"/>
+      <c r="CY16" t="inlineStr">
+        <is>
+          <t>SABRINA ANIELLO BRASIELLO</t>
+        </is>
+      </c>
+      <c r="CZ16" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA16" t="inlineStr"/>
+      <c r="DB16" t="inlineStr"/>
+      <c r="DC16" t="inlineStr"/>
+      <c r="DD16" t="inlineStr"/>
+      <c r="DE16" t="inlineStr"/>
+      <c r="DF16" t="inlineStr">
+        <is>
+          <t>AITANA HERNANDEZ BARBERA</t>
+        </is>
+      </c>
+      <c r="DG16" t="n">
+        <v>2</v>
+      </c>
+      <c r="DH16" t="inlineStr"/>
+      <c r="DI16" t="inlineStr"/>
+      <c r="DJ16" t="inlineStr"/>
+      <c r="DK16" t="inlineStr"/>
+      <c r="DL16" t="inlineStr"/>
+      <c r="DM16" t="inlineStr">
+        <is>
+          <t>ALEJANDRA CAICEDO PLAYONERO</t>
+        </is>
+      </c>
+      <c r="DN16" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO16" t="inlineStr"/>
+      <c r="DP16" t="inlineStr"/>
+      <c r="DQ16" t="inlineStr"/>
+      <c r="DR16" t="inlineStr"/>
+      <c r="DS16" t="inlineStr"/>
+      <c r="DT16" t="inlineStr">
+        <is>
+          <t>INGRID SOFIA PEREZ ORTUÑO</t>
+        </is>
+      </c>
+      <c r="DU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV16" t="inlineStr"/>
+      <c r="DW16" t="inlineStr">
+        <is>
+          <t>36:59</t>
+        </is>
+      </c>
+      <c r="DX16" t="inlineStr"/>
+      <c r="DY16" t="inlineStr"/>
+      <c r="DZ16" t="inlineStr"/>
+      <c r="EA16" t="inlineStr">
+        <is>
+          <t>AROA DIAZ DIAZ</t>
+        </is>
+      </c>
+      <c r="EB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC16" t="inlineStr"/>
+      <c r="ED16" t="inlineStr"/>
+      <c r="EE16" t="inlineStr"/>
+      <c r="EF16" t="inlineStr"/>
+      <c r="EG16" t="inlineStr"/>
+      <c r="EH16" t="inlineStr">
+        <is>
+          <t>YAIZA SANCHEZ BERNABEU</t>
+        </is>
+      </c>
+      <c r="EI16" t="n">
+        <v>3</v>
+      </c>
+      <c r="EJ16" t="inlineStr"/>
+      <c r="EK16" t="inlineStr"/>
+      <c r="EL16" t="inlineStr"/>
+      <c r="EM16" t="inlineStr"/>
+      <c r="EN16" t="inlineStr"/>
+      <c r="EO16" t="inlineStr">
+        <is>
+          <t>NAYRA GIL CUERDA</t>
+        </is>
+      </c>
+      <c r="EP16" t="n">
+        <v>2</v>
+      </c>
+      <c r="EQ16" t="inlineStr"/>
+      <c r="ER16" t="inlineStr"/>
+      <c r="ES16" t="inlineStr"/>
+      <c r="ET16" t="inlineStr"/>
+      <c r="EU16" t="inlineStr"/>
+      <c r="EV16" t="inlineStr">
+        <is>
+          <t>LIDIA TRINIDAD BOMABA SANTOS</t>
+        </is>
+      </c>
+      <c r="EW16" t="n">
+        <v>2</v>
+      </c>
+      <c r="EX16" t="inlineStr"/>
+      <c r="EY16" t="inlineStr"/>
+      <c r="EZ16" t="inlineStr"/>
+      <c r="FA16" t="inlineStr"/>
+      <c r="FB16" t="inlineStr"/>
+      <c r="FC16" t="inlineStr">
+        <is>
+          <t>DANIELA SUAREZ NAVARRO</t>
+        </is>
+      </c>
+      <c r="FD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE16" t="inlineStr"/>
+      <c r="FF16" t="inlineStr"/>
+      <c r="FG16" t="inlineStr"/>
+      <c r="FH16" t="inlineStr"/>
+      <c r="FI16" t="inlineStr"/>
+      <c r="FJ16" t="inlineStr">
+        <is>
+          <t>MARTINA CATALA MOLLA</t>
+        </is>
+      </c>
+      <c r="FK16" t="n">
+        <v>3</v>
+      </c>
+      <c r="FL16" t="inlineStr"/>
+      <c r="FM16" t="inlineStr"/>
+      <c r="FN16" t="inlineStr"/>
+      <c r="FO16" t="inlineStr"/>
+      <c r="FP16" t="inlineStr"/>
+      <c r="FQ16" t="inlineStr">
+        <is>
+          <t>CARLA DE MARCO CASTAÑO</t>
+        </is>
+      </c>
+      <c r="FR16" t="n">
+        <v>5</v>
+      </c>
+      <c r="FS16" t="inlineStr"/>
+      <c r="FT16" t="inlineStr"/>
+      <c r="FU16" t="inlineStr"/>
+      <c r="FV16" t="inlineStr"/>
+      <c r="FW16" t="inlineStr"/>
+      <c r="FX16" t="inlineStr">
+        <is>
+          <t>ANDREA PEREZ SANMARTIN</t>
+        </is>
+      </c>
+      <c r="FY16" t="n">
+        <v>6</v>
+      </c>
+      <c r="FZ16" t="inlineStr"/>
+      <c r="GA16" t="inlineStr"/>
+      <c r="GB16" t="inlineStr"/>
+      <c r="GC16" t="inlineStr"/>
+      <c r="GD16" t="inlineStr"/>
+      <c r="GE16" t="inlineStr">
+        <is>
+          <t>ZAIDA ARMAS LUZARDO</t>
+        </is>
+      </c>
+      <c r="GF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG16" t="inlineStr"/>
+      <c r="GH16" t="inlineStr"/>
+      <c r="GI16" t="inlineStr"/>
+      <c r="GJ16" t="inlineStr"/>
+      <c r="GK16" t="inlineStr"/>
+      <c r="GL16" t="inlineStr">
+        <is>
+          <t>ERIKA ELENA VLADU VLADU</t>
+        </is>
+      </c>
+      <c r="GM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN16" t="inlineStr"/>
+      <c r="GO16" t="inlineStr"/>
+      <c r="GP16" t="inlineStr"/>
+      <c r="GQ16" t="inlineStr"/>
+      <c r="GR16" t="inlineStr"/>
+      <c r="GS16" t="inlineStr">
+        <is>
+          <t>VALERIA RODRIGUEZ SOSA</t>
+        </is>
+      </c>
+      <c r="GT16" t="n">
+        <v>2</v>
+      </c>
+      <c r="GU16" t="inlineStr"/>
+      <c r="GV16" t="inlineStr"/>
+      <c r="GW16" t="inlineStr"/>
+      <c r="GX16" t="inlineStr"/>
+      <c r="GY16" t="inlineStr"/>
+      <c r="GZ16" t="inlineStr">
+        <is>
+          <t>ANGELA ALPUENTE TABASCO</t>
+        </is>
+      </c>
+      <c r="HA16" t="n">
+        <v>1</v>
+      </c>
+      <c r="HB16" t="inlineStr"/>
+      <c r="HC16" t="inlineStr"/>
+      <c r="HD16" t="inlineStr"/>
+      <c r="HE16" t="inlineStr"/>
+      <c r="HF16" t="inlineStr"/>
+      <c r="HG16" t="inlineStr">
+        <is>
+          <t>MIHA MOHAMED LEMINE ALY</t>
+        </is>
+      </c>
+      <c r="HH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI16" t="inlineStr"/>
+      <c r="HJ16" t="inlineStr"/>
+      <c r="HK16" t="inlineStr"/>
+      <c r="HL16" t="inlineStr"/>
+      <c r="HM16" t="inlineStr"/>
+      <c r="HN16" t="inlineStr">
+        <is>
+          <t>LAURA MUÑOZ PICAZO</t>
+        </is>
+      </c>
+      <c r="HO16" t="n">
+        <v>6</v>
+      </c>
+      <c r="HP16" t="inlineStr"/>
+      <c r="HQ16" t="inlineStr"/>
+      <c r="HR16" t="inlineStr"/>
+      <c r="HS16" t="inlineStr"/>
+      <c r="HT16" t="inlineStr"/>
+      <c r="HU16" t="inlineStr">
+        <is>
+          <t>YASMIN FREDERICA FERNANDEZ FURTADO</t>
+        </is>
+      </c>
+      <c r="HV16" t="n">
+        <v>6</v>
+      </c>
+      <c r="HW16" t="inlineStr"/>
+      <c r="HX16" t="inlineStr"/>
+      <c r="HY16" t="inlineStr"/>
+      <c r="HZ16" t="inlineStr"/>
+      <c r="IA16" t="inlineStr"/>
+      <c r="IB16" t="inlineStr">
+        <is>
+          <t>DANIELA AGUADO MARTINEZ</t>
+        </is>
+      </c>
+      <c r="IC16" t="n">
+        <v>6</v>
+      </c>
+      <c r="ID16" t="inlineStr"/>
+      <c r="IE16" t="inlineStr"/>
+      <c r="IF16" t="inlineStr"/>
+      <c r="IG16" t="inlineStr"/>
+      <c r="IH16" t="inlineStr"/>
+      <c r="II16" t="inlineStr"/>
+      <c r="IJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK16" t="inlineStr"/>
+      <c r="IL16" t="inlineStr"/>
+      <c r="IM16" t="inlineStr"/>
+      <c r="IN16" t="inlineStr"/>
+      <c r="IO16" t="inlineStr"/>
+      <c r="IP16" t="inlineStr">
+        <is>
+          <t>SANDRA MONTEAGUDO CORREAS</t>
+        </is>
+      </c>
+      <c r="IQ16" t="n">
+        <v>6</v>
+      </c>
+      <c r="IR16" t="inlineStr"/>
+      <c r="IS16" t="inlineStr"/>
+      <c r="IT16" t="inlineStr"/>
+      <c r="IU16" t="inlineStr"/>
+      <c r="IV16" t="inlineStr"/>
+      <c r="IW16" t="inlineStr"/>
+      <c r="IX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY16" t="inlineStr"/>
+      <c r="IZ16" t="inlineStr"/>
+      <c r="JA16" t="inlineStr"/>
+      <c r="JB16" t="inlineStr"/>
+      <c r="JC16" t="inlineStr"/>
+      <c r="JD16" t="inlineStr">
+        <is>
+          <t>ENTRENADOR</t>
+        </is>
+      </c>
+      <c r="JE16" t="inlineStr">
+        <is>
+          <t>RUBEN MUÑOZ EGEA</t>
+        </is>
+      </c>
+      <c r="JF16" t="inlineStr"/>
+      <c r="JG16" t="inlineStr"/>
+      <c r="JH16" t="inlineStr">
+        <is>
+          <t>OFICIAL</t>
+        </is>
+      </c>
+      <c r="JI16" t="inlineStr">
+        <is>
+          <t>JAVIER MANZANO FERNANDEZ</t>
+        </is>
+      </c>
+      <c r="JJ16" t="inlineStr"/>
+      <c r="JK16" t="inlineStr"/>
+      <c r="JL16" t="inlineStr">
+        <is>
+          <t>OFICIAL</t>
+        </is>
+      </c>
+      <c r="JM16" t="inlineStr">
+        <is>
+          <t>JOSE LUIS EXPOSITO CASAS</t>
+        </is>
+      </c>
+      <c r="JN16" t="inlineStr"/>
+      <c r="JO16" t="inlineStr"/>
+      <c r="JP16" t="inlineStr"/>
+      <c r="JQ16" t="inlineStr"/>
+      <c r="JR16" t="inlineStr"/>
+      <c r="JS16" t="inlineStr"/>
+      <c r="JT16" t="inlineStr"/>
+      <c r="JU16" t="inlineStr"/>
+      <c r="JV16" t="inlineStr"/>
+      <c r="JW16" t="inlineStr"/>
+      <c r="JX16" t="n">
+        <v>55</v>
+      </c>
+      <c r="JY16" t="n">
+        <v>17</v>
+      </c>
+      <c r="JZ16" t="n">
+        <v>17</v>
+      </c>
+      <c r="KA16" t="n">
+        <v>1</v>
+      </c>
+      <c r="KB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC16" t="n">
+        <v>3</v>
+      </c>
+      <c r="KD16" t="n">
+        <v>3</v>
+      </c>
+      <c r="KE16" t="n">
+        <v>4</v>
+      </c>
+      <c r="KF16" t="n">
+        <v>1</v>
+      </c>
+      <c r="KG16" t="n">
+        <v>4</v>
+      </c>
+      <c r="KH16" t="n">
+        <v>3</v>
+      </c>
+      <c r="KI16" t="n">
+        <v>3</v>
+      </c>
+      <c r="KJ16" t="n">
+        <v>1</v>
+      </c>
+      <c r="KK16" t="n">
+        <v>2</v>
+      </c>
+      <c r="KL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM16" t="n">
+        <v>3</v>
+      </c>
+      <c r="KN16" t="n">
+        <v>3</v>
+      </c>
+      <c r="KO16" t="n">
+        <v>3</v>
+      </c>
+      <c r="KP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ16" t="n">
+        <v>3</v>
+      </c>
+      <c r="KR16" t="n">
+        <v>3</v>
+      </c>
+      <c r="KS16" t="n">
+        <v>2</v>
+      </c>
+      <c r="KT16" t="n">
+        <v>2</v>
+      </c>
+      <c r="KU16" t="n">
+        <v>2</v>
+      </c>
+      <c r="KV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW16" t="n">
+        <v>4</v>
+      </c>
+      <c r="KX16" t="n">
+        <v>1</v>
+      </c>
+      <c r="KY16" t="n">
+        <v>3</v>
+      </c>
+      <c r="KZ16" t="n">
+        <v>2</v>
+      </c>
+      <c r="LA16" t="inlineStr">
+        <is>
+          <t>Empate</t>
+        </is>
+      </c>
+      <c r="LB16" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LC16" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LD16" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LE16" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LF16" t="inlineStr">
+        <is>
+          <t>Empate</t>
+        </is>
+      </c>
+      <c r="LG16" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LH16" t="inlineStr">
+        <is>
+          <t>Empate</t>
+        </is>
+      </c>
+      <c r="LI16" t="inlineStr">
+        <is>
+          <t>Empate</t>
+        </is>
+      </c>
+      <c r="LJ16" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LK16" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LL16" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LM16" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LN16" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LO16" t="n">
+        <v>1</v>
+      </c>
+      <c r="LP16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1455925</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>06/01/2025</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>SELECCION CANARIA JUVENIL FEMENINA</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>MADRID JF</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>34</v>
+      </c>
+      <c r="I17" t="n">
+        <v>22</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="n">
+        <v>8</v>
+      </c>
+      <c r="O17" t="n">
+        <v>6</v>
+      </c>
+      <c r="P17" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>7</v>
+      </c>
+      <c r="R17" t="n">
+        <v>14</v>
+      </c>
+      <c r="S17" t="n">
+        <v>10</v>
+      </c>
+      <c r="T17" t="n">
+        <v>16</v>
+      </c>
+      <c r="U17" t="n">
+        <v>11</v>
+      </c>
+      <c r="V17" t="n">
+        <v>18</v>
+      </c>
+      <c r="W17" t="n">
+        <v>13</v>
+      </c>
+      <c r="X17" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>23:32:00</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>14:21:00</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>39:48</t>
+        </is>
+      </c>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>52:56</t>
+        </is>
+      </c>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>LUCIA PEREZ CARBO</t>
+        </is>
+      </c>
+      <c r="AO17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP17" t="inlineStr"/>
+      <c r="AQ17" t="inlineStr"/>
+      <c r="AR17" t="inlineStr"/>
+      <c r="AS17" t="inlineStr"/>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AU17" t="inlineStr">
+        <is>
+          <t>CARMEN MORENO BERMUDEZ</t>
+        </is>
+      </c>
+      <c r="AV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW17" t="inlineStr"/>
+      <c r="AX17" t="inlineStr"/>
+      <c r="AY17" t="inlineStr"/>
+      <c r="AZ17" t="inlineStr"/>
+      <c r="BA17" t="inlineStr"/>
+      <c r="BB17" t="inlineStr">
+        <is>
+          <t>LAIA FERNANDEZ CANO</t>
+        </is>
+      </c>
+      <c r="BC17" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD17" t="inlineStr"/>
+      <c r="BE17" t="inlineStr"/>
+      <c r="BF17" t="inlineStr"/>
+      <c r="BG17" t="inlineStr"/>
+      <c r="BH17" t="inlineStr"/>
+      <c r="BI17" t="inlineStr">
+        <is>
+          <t>DANIELA PRIETO CARRASCO</t>
+        </is>
+      </c>
+      <c r="BJ17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK17" t="inlineStr"/>
+      <c r="BL17" t="inlineStr"/>
+      <c r="BM17" t="inlineStr"/>
+      <c r="BN17" t="inlineStr"/>
+      <c r="BO17" t="inlineStr"/>
+      <c r="BP17" t="inlineStr">
+        <is>
+          <t>PAULA MASAME ISANTA CODINA</t>
+        </is>
+      </c>
+      <c r="BQ17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR17" t="inlineStr"/>
+      <c r="BS17" t="inlineStr"/>
+      <c r="BT17" t="inlineStr"/>
+      <c r="BU17" t="inlineStr"/>
+      <c r="BV17" t="inlineStr"/>
+      <c r="BW17" t="inlineStr">
+        <is>
+          <t>EVA RUIZ FERNANDEZ</t>
+        </is>
+      </c>
+      <c r="BX17" t="n">
+        <v>3</v>
+      </c>
+      <c r="BY17" t="inlineStr"/>
+      <c r="BZ17" t="inlineStr"/>
+      <c r="CA17" t="inlineStr"/>
+      <c r="CB17" t="inlineStr"/>
+      <c r="CC17" t="inlineStr"/>
+      <c r="CD17" t="inlineStr">
+        <is>
+          <t>LAURA ESPERANZA MESAKA BOTE</t>
+        </is>
+      </c>
+      <c r="CE17" t="n">
+        <v>3</v>
+      </c>
+      <c r="CF17" t="inlineStr"/>
+      <c r="CG17" t="inlineStr"/>
+      <c r="CH17" t="inlineStr"/>
+      <c r="CI17" t="inlineStr"/>
+      <c r="CJ17" t="inlineStr"/>
+      <c r="CK17" t="inlineStr">
+        <is>
+          <t>CELIA LEAL GARCIA</t>
+        </is>
+      </c>
+      <c r="CL17" t="n">
+        <v>2</v>
+      </c>
+      <c r="CM17" t="inlineStr"/>
+      <c r="CN17" t="inlineStr"/>
+      <c r="CO17" t="inlineStr"/>
+      <c r="CP17" t="inlineStr"/>
+      <c r="CQ17" t="inlineStr"/>
+      <c r="CR17" t="inlineStr">
+        <is>
+          <t>NEREA GUELL VAZQUEZ</t>
+        </is>
+      </c>
+      <c r="CS17" t="n">
+        <v>4</v>
+      </c>
+      <c r="CT17" t="inlineStr"/>
+      <c r="CU17" t="inlineStr">
+        <is>
+          <t>01:36</t>
+        </is>
+      </c>
+      <c r="CV17" t="inlineStr"/>
+      <c r="CW17" t="inlineStr"/>
+      <c r="CX17" t="inlineStr"/>
+      <c r="CY17" t="inlineStr">
+        <is>
+          <t>EDURNE DONDERIS SANCHEZ</t>
+        </is>
+      </c>
+      <c r="CZ17" t="n">
+        <v>4</v>
+      </c>
+      <c r="DA17" t="inlineStr"/>
+      <c r="DB17" t="inlineStr"/>
+      <c r="DC17" t="inlineStr"/>
+      <c r="DD17" t="inlineStr"/>
+      <c r="DE17" t="inlineStr"/>
+      <c r="DF17" t="inlineStr">
+        <is>
+          <t>LAURA BALLART RUIZ</t>
+        </is>
+      </c>
+      <c r="DG17" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH17" t="inlineStr"/>
+      <c r="DI17" t="inlineStr"/>
+      <c r="DJ17" t="inlineStr"/>
+      <c r="DK17" t="inlineStr"/>
+      <c r="DL17" t="inlineStr"/>
+      <c r="DM17" t="inlineStr">
+        <is>
+          <t>LAURA GONZALEZ VEGA</t>
+        </is>
+      </c>
+      <c r="DN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO17" t="inlineStr"/>
+      <c r="DP17" t="inlineStr"/>
+      <c r="DQ17" t="inlineStr"/>
+      <c r="DR17" t="inlineStr"/>
+      <c r="DS17" t="inlineStr"/>
+      <c r="DT17" t="inlineStr">
+        <is>
+          <t>JULIA TERRADO GENE</t>
+        </is>
+      </c>
+      <c r="DU17" t="n">
+        <v>6</v>
+      </c>
+      <c r="DV17" t="inlineStr"/>
+      <c r="DW17" t="inlineStr">
+        <is>
+          <t>02:11</t>
+        </is>
+      </c>
+      <c r="DX17" t="inlineStr"/>
+      <c r="DY17" t="inlineStr"/>
+      <c r="DZ17" t="inlineStr"/>
+      <c r="EA17" t="inlineStr">
+        <is>
+          <t>LAURA SEVILLANO GUERRERO</t>
+        </is>
+      </c>
+      <c r="EB17" t="n">
+        <v>3</v>
+      </c>
+      <c r="EC17" t="inlineStr"/>
+      <c r="ED17" t="inlineStr"/>
+      <c r="EE17" t="inlineStr"/>
+      <c r="EF17" t="inlineStr"/>
+      <c r="EG17" t="inlineStr"/>
+      <c r="EH17" t="inlineStr">
+        <is>
+          <t>ANNA POUS MARTORELL</t>
+        </is>
+      </c>
+      <c r="EI17" t="n">
+        <v>2</v>
+      </c>
+      <c r="EJ17" t="inlineStr"/>
+      <c r="EK17" t="inlineStr"/>
+      <c r="EL17" t="inlineStr"/>
+      <c r="EM17" t="inlineStr"/>
+      <c r="EN17" t="inlineStr"/>
+      <c r="EO17" t="inlineStr">
+        <is>
+          <t>SARA HIGUERO REDONDO</t>
+        </is>
+      </c>
+      <c r="EP17" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ17" t="inlineStr"/>
+      <c r="ER17" t="inlineStr"/>
+      <c r="ES17" t="inlineStr"/>
+      <c r="ET17" t="inlineStr"/>
+      <c r="EU17" t="inlineStr"/>
+      <c r="EV17" t="inlineStr">
+        <is>
+          <t>CLAUDIA GIRBAU FONT</t>
+        </is>
+      </c>
+      <c r="EW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX17" t="inlineStr"/>
+      <c r="EY17" t="inlineStr"/>
+      <c r="EZ17" t="inlineStr"/>
+      <c r="FA17" t="inlineStr"/>
+      <c r="FB17" t="inlineStr"/>
+      <c r="FC17" t="inlineStr">
+        <is>
+          <t>ALBA GALVAN DE CASTRO</t>
+        </is>
+      </c>
+      <c r="FD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE17" t="inlineStr"/>
+      <c r="FF17" t="inlineStr">
+        <is>
+          <t>50:31</t>
+        </is>
+      </c>
+      <c r="FG17" t="inlineStr"/>
+      <c r="FH17" t="inlineStr"/>
+      <c r="FI17" t="inlineStr"/>
+      <c r="FJ17" t="inlineStr">
+        <is>
+          <t>AINOA PONCE MIRO</t>
+        </is>
+      </c>
+      <c r="FK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL17" t="inlineStr"/>
+      <c r="FM17" t="inlineStr"/>
+      <c r="FN17" t="inlineStr"/>
+      <c r="FO17" t="inlineStr"/>
+      <c r="FP17" t="inlineStr"/>
+      <c r="FQ17" t="inlineStr">
+        <is>
+          <t>NURIA MONTESINOS MUÑOZ</t>
+        </is>
+      </c>
+      <c r="FR17" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS17" t="inlineStr"/>
+      <c r="FT17" t="inlineStr"/>
+      <c r="FU17" t="inlineStr"/>
+      <c r="FV17" t="inlineStr"/>
+      <c r="FW17" t="inlineStr"/>
+      <c r="FX17" t="inlineStr">
+        <is>
+          <t>JULIA COSTA AGUILAR</t>
+        </is>
+      </c>
+      <c r="FY17" t="n">
+        <v>1</v>
+      </c>
+      <c r="FZ17" t="inlineStr"/>
+      <c r="GA17" t="inlineStr"/>
+      <c r="GB17" t="inlineStr"/>
+      <c r="GC17" t="inlineStr"/>
+      <c r="GD17" t="inlineStr"/>
+      <c r="GE17" t="inlineStr">
+        <is>
+          <t>LUCIA MARTINEZ GONZALEZ</t>
+        </is>
+      </c>
+      <c r="GF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG17" t="inlineStr"/>
+      <c r="GH17" t="inlineStr">
+        <is>
+          <t>40:34</t>
+        </is>
+      </c>
+      <c r="GI17" t="inlineStr"/>
+      <c r="GJ17" t="inlineStr"/>
+      <c r="GK17" t="inlineStr"/>
+      <c r="GL17" t="inlineStr">
+        <is>
+          <t>CARLOTA ORTIZ SERRA</t>
+        </is>
+      </c>
+      <c r="GM17" t="n">
+        <v>4</v>
+      </c>
+      <c r="GN17" t="inlineStr"/>
+      <c r="GO17" t="inlineStr"/>
+      <c r="GP17" t="inlineStr"/>
+      <c r="GQ17" t="inlineStr"/>
+      <c r="GR17" t="inlineStr"/>
+      <c r="GS17" t="inlineStr">
+        <is>
+          <t>JULIA VAZQUEZ LOPEZ</t>
+        </is>
+      </c>
+      <c r="GT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU17" t="inlineStr"/>
+      <c r="GV17" t="inlineStr"/>
+      <c r="GW17" t="inlineStr"/>
+      <c r="GX17" t="inlineStr"/>
+      <c r="GY17" t="inlineStr"/>
+      <c r="GZ17" t="inlineStr">
+        <is>
+          <t>JESSICA ESCALANTE ARMESTO</t>
+        </is>
+      </c>
+      <c r="HA17" t="n">
+        <v>1</v>
+      </c>
+      <c r="HB17" t="inlineStr"/>
+      <c r="HC17" t="inlineStr"/>
+      <c r="HD17" t="inlineStr"/>
+      <c r="HE17" t="inlineStr"/>
+      <c r="HF17" t="inlineStr"/>
+      <c r="HG17" t="inlineStr">
+        <is>
+          <t>SARA FIDALGO MARTI</t>
+        </is>
+      </c>
+      <c r="HH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI17" t="inlineStr"/>
+      <c r="HJ17" t="inlineStr"/>
+      <c r="HK17" t="inlineStr"/>
+      <c r="HL17" t="inlineStr"/>
+      <c r="HM17" t="inlineStr"/>
+      <c r="HN17" t="inlineStr">
+        <is>
+          <t>QUERALT FORNT GONZALEZ</t>
+        </is>
+      </c>
+      <c r="HO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP17" t="inlineStr"/>
+      <c r="HQ17" t="inlineStr">
+        <is>
+          <t>26:33</t>
+        </is>
+      </c>
+      <c r="HR17" t="inlineStr">
+        <is>
+          <t>46:06</t>
+        </is>
+      </c>
+      <c r="HS17" t="inlineStr">
+        <is>
+          <t>54:36</t>
+        </is>
+      </c>
+      <c r="HT17" t="inlineStr"/>
+      <c r="HU17" t="inlineStr">
+        <is>
+          <t>VERONICA ACEÑERO GARRIDO</t>
+        </is>
+      </c>
+      <c r="HV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW17" t="inlineStr"/>
+      <c r="HX17" t="inlineStr"/>
+      <c r="HY17" t="inlineStr"/>
+      <c r="HZ17" t="inlineStr"/>
+      <c r="IA17" t="inlineStr"/>
+      <c r="IB17" t="inlineStr">
+        <is>
+          <t>PAULA MILLARUELO SOTOS</t>
+        </is>
+      </c>
+      <c r="IC17" t="n">
+        <v>1</v>
+      </c>
+      <c r="ID17" t="inlineStr"/>
+      <c r="IE17" t="inlineStr"/>
+      <c r="IF17" t="inlineStr"/>
+      <c r="IG17" t="inlineStr"/>
+      <c r="IH17" t="inlineStr"/>
+      <c r="II17" t="inlineStr">
+        <is>
+          <t>CLARA MARLENE LLORENS MCGREGOR</t>
+        </is>
+      </c>
+      <c r="IJ17" t="n">
+        <v>6</v>
+      </c>
+      <c r="IK17" t="inlineStr"/>
+      <c r="IL17" t="inlineStr">
+        <is>
+          <t>07:31</t>
+        </is>
+      </c>
+      <c r="IM17" t="inlineStr"/>
+      <c r="IN17" t="inlineStr"/>
+      <c r="IO17" t="inlineStr"/>
+      <c r="IP17" t="inlineStr">
+        <is>
+          <t>LUCIA MORENO TERRIEN</t>
+        </is>
+      </c>
+      <c r="IQ17" t="n">
+        <v>2</v>
+      </c>
+      <c r="IR17" t="inlineStr"/>
+      <c r="IS17" t="inlineStr">
+        <is>
+          <t>43:18</t>
+        </is>
+      </c>
+      <c r="IT17" t="inlineStr">
+        <is>
+          <t>49:21</t>
+        </is>
+      </c>
+      <c r="IU17" t="inlineStr"/>
+      <c r="IV17" t="inlineStr"/>
+      <c r="IW17" t="inlineStr">
+        <is>
+          <t>AITANA VEGA CABEZAS</t>
+        </is>
+      </c>
+      <c r="IX17" t="n">
+        <v>1</v>
+      </c>
+      <c r="IY17" t="inlineStr"/>
+      <c r="IZ17" t="inlineStr">
+        <is>
+          <t>20:14</t>
+        </is>
+      </c>
+      <c r="JA17" t="inlineStr"/>
+      <c r="JB17" t="inlineStr"/>
+      <c r="JC17" t="inlineStr"/>
+      <c r="JD17" t="inlineStr">
+        <is>
+          <t>ENTRENADOR</t>
+        </is>
+      </c>
+      <c r="JE17" t="inlineStr">
+        <is>
+          <t>ANTONI ALFEREZ BELTRAN</t>
+        </is>
+      </c>
+      <c r="JF17" t="inlineStr"/>
+      <c r="JG17" t="inlineStr"/>
+      <c r="JH17" t="inlineStr">
+        <is>
+          <t>AYTE ENTRENADOR</t>
+        </is>
+      </c>
+      <c r="JI17" t="inlineStr">
+        <is>
+          <t>LLUC AUMATELL BOADELLA</t>
+        </is>
+      </c>
+      <c r="JJ17" t="inlineStr"/>
+      <c r="JK17" t="inlineStr"/>
+      <c r="JL17" t="inlineStr">
+        <is>
+          <t>OFICIAL</t>
+        </is>
+      </c>
+      <c r="JM17" t="inlineStr">
+        <is>
+          <t>LAIA FAIXO SELLES</t>
+        </is>
+      </c>
+      <c r="JN17" t="inlineStr"/>
+      <c r="JO17" t="inlineStr"/>
+      <c r="JP17" t="inlineStr">
+        <is>
+          <t>OFICIAL</t>
+        </is>
+      </c>
+      <c r="JQ17" t="inlineStr">
+        <is>
+          <t>IVAN GARCIA PEREZ</t>
+        </is>
+      </c>
+      <c r="JR17" t="inlineStr"/>
+      <c r="JS17" t="inlineStr"/>
+      <c r="JT17" t="inlineStr"/>
+      <c r="JU17" t="inlineStr"/>
+      <c r="JV17" t="inlineStr"/>
+      <c r="JW17" t="inlineStr"/>
+      <c r="JX17" t="n">
+        <v>56</v>
+      </c>
+      <c r="JY17" t="n">
+        <v>12</v>
+      </c>
+      <c r="JZ17" t="n">
+        <v>12</v>
+      </c>
+      <c r="KA17" t="n">
+        <v>5</v>
+      </c>
+      <c r="KB17" t="n">
+        <v>3</v>
+      </c>
+      <c r="KC17" t="n">
+        <v>3</v>
+      </c>
+      <c r="KD17" t="n">
+        <v>2</v>
+      </c>
+      <c r="KE17" t="n">
+        <v>2</v>
+      </c>
+      <c r="KF17" t="n">
+        <v>2</v>
+      </c>
+      <c r="KG17" t="n">
+        <v>3</v>
+      </c>
+      <c r="KH17" t="n">
+        <v>2</v>
+      </c>
+      <c r="KI17" t="n">
+        <v>3</v>
+      </c>
+      <c r="KJ17" t="n">
+        <v>1</v>
+      </c>
+      <c r="KK17" t="n">
+        <v>3</v>
+      </c>
+      <c r="KL17" t="n">
+        <v>3</v>
+      </c>
+      <c r="KM17" t="n">
+        <v>2</v>
+      </c>
+      <c r="KN17" t="n">
+        <v>1</v>
+      </c>
+      <c r="KO17" t="n">
+        <v>2</v>
+      </c>
+      <c r="KP17" t="n">
+        <v>2</v>
+      </c>
+      <c r="KQ17" t="n">
+        <v>3</v>
+      </c>
+      <c r="KR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS17" t="n">
+        <v>3</v>
+      </c>
+      <c r="KT17" t="n">
+        <v>4</v>
+      </c>
+      <c r="KU17" t="n">
+        <v>3</v>
+      </c>
+      <c r="KV17" t="n">
+        <v>3</v>
+      </c>
+      <c r="KW17" t="n">
+        <v>3</v>
+      </c>
+      <c r="KX17" t="n">
+        <v>1</v>
+      </c>
+      <c r="KY17" t="n">
+        <v>4</v>
+      </c>
+      <c r="KZ17" t="n">
+        <v>1</v>
+      </c>
+      <c r="LA17" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LB17" t="inlineStr">
+        <is>
+          <t>Empate</t>
+        </is>
+      </c>
+      <c r="LC17" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LD17" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LE17" t="inlineStr">
+        <is>
+          <t>Empate</t>
+        </is>
+      </c>
+      <c r="LF17" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LG17" t="inlineStr">
+        <is>
+          <t>Empate</t>
+        </is>
+      </c>
+      <c r="LH17" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LI17" t="inlineStr">
+        <is>
+          <t>Visitante</t>
+        </is>
+      </c>
+      <c r="LJ17" t="inlineStr">
+        <is>
+          <t>Empate</t>
+        </is>
+      </c>
+      <c r="LK17" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LL17" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LM17" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LN17" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="LO17" t="n">
+        <v>5</v>
+      </c>
+      <c r="LP17" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
